--- a/StructureDefinition-MedRecordAdministration.xlsx
+++ b/StructureDefinition-MedRecordAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="395">
   <si>
     <t>Path</t>
   </si>
@@ -210,13 +210,190 @@
 </t>
   </si>
   <si>
-    <t>MedicationAdministration.implicitRules</t>
+    <t>MedicationAdministration.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -312,28 +489,13 @@
     <t>MedicationAdministration.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>treatmentPlan</t>
@@ -365,25 +527,7 @@
     <t>MedicationAdministration.extension.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.extension.url</t>
@@ -437,10 +581,6 @@
     <t>MedicationAdministration.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -448,9 +588,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -562,9 +699,6 @@
     <t>A code indicating why the administration was not performed.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
   </si>
   <si>
@@ -776,12 +910,6 @@
   </si>
   <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1270,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1800,23 +1928,21 @@
         <v>41</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>41</v>
@@ -1865,7 +1991,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -1877,13 +2003,13 @@
         <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>41</v>
@@ -1897,18 +2023,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>41</v>
@@ -1955,28 +2081,28 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>77</v>
@@ -1985,19 +2111,19 @@
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>41</v>
@@ -2011,11 +2137,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2031,7 +2157,7 @@
         <v>41</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>80</v>
@@ -2111,7 +2237,7 @@
         <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>41</v>
@@ -2125,18 +2251,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>41</v>
@@ -2145,19 +2271,19 @@
         <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2207,25 +2333,25 @@
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>41</v>
@@ -2239,7 +2365,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2250,7 +2376,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>41</v>
@@ -2259,18 +2385,20 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2307,29 +2435,31 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>41</v>
@@ -2347,42 +2477,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>41</v>
@@ -2431,7 +2561,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2440,22 +2570,22 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>41</v>
@@ -2463,7 +2593,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2474,7 +2604,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>41</v>
@@ -2483,18 +2613,20 @@
         <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
@@ -2519,13 +2651,13 @@
         <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>41</v>
@@ -2543,25 +2675,25 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
@@ -2575,7 +2707,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2586,7 +2718,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -2595,18 +2727,20 @@
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2631,31 +2765,31 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2667,7 +2801,7 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>41</v>
@@ -2687,7 +2821,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2695,7 +2829,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2704,22 +2838,22 @@
         <v>41</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2727,7 +2861,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>41</v>
@@ -2769,10 +2903,10 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>50</v>
@@ -2781,13 +2915,13 @@
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>41</v>
@@ -2801,7 +2935,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2809,7 +2943,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2824,15 +2958,17 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2857,29 +2993,31 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2897,7 +3035,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -2911,17 +3049,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
@@ -2936,15 +3072,17 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2993,7 +3131,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3011,7 +3149,7 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -3025,11 +3163,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3042,26 +3180,24 @@
         <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3109,7 +3245,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3121,13 +3257,13 @@
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3139,9 +3275,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3155,7 +3291,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3164,17 +3300,15 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3211,19 +3345,17 @@
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3235,16 +3367,16 @@
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3253,11 +3385,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3266,25 +3400,25 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3335,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3344,22 +3478,22 @@
         <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3367,7 +3501,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3378,7 +3512,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -3387,16 +3521,16 @@
         <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3447,25 +3581,25 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -3477,9 +3611,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3487,32 +3621,30 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3537,63 +3669,63 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3601,13 +3733,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3616,22 +3748,24 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -3649,13 +3783,13 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3673,39 +3807,39 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3713,13 +3847,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3731,10 +3865,10 @@
         <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3761,31 +3895,29 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3803,7 +3935,7 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3817,9 +3949,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3837,20 +3971,18 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3875,32 +4007,34 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3912,60 +4046,60 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3989,13 +4123,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4013,31 +4147,31 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4045,11 +4179,9 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4058,7 +4190,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>51</v>
@@ -4067,19 +4199,19 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4129,13 +4261,13 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
@@ -4144,24 +4276,24 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4169,13 +4301,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4184,13 +4316,13 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4241,13 +4373,13 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
@@ -4256,24 +4388,24 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4284,25 +4416,25 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4353,13 +4485,13 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4368,24 +4500,24 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4393,30 +4525,32 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4441,13 +4575,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4465,13 +4599,13 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4480,24 +4614,24 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4505,28 +4639,28 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4553,35 +4687,37 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4590,16 +4726,16 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4607,11 +4743,9 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4629,16 +4763,16 @@
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4665,13 +4799,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4689,10 +4823,10 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>50</v>
@@ -4704,40 +4838,38 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -4746,15 +4878,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M31" s="2"/>
+      <c r="M31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4779,31 +4913,29 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>50</v>
@@ -4818,16 +4950,16 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -4835,9 +4967,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>41</v>
       </c>
@@ -4846,7 +4980,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>51</v>
@@ -4858,15 +4992,17 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4891,13 +5027,13 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -4915,13 +5051,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -4930,26 +5066,28 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
@@ -4961,24 +5099,26 @@
         <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5027,10 +5167,10 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>50</v>
@@ -5039,60 +5179,58 @@
         <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5141,75 +5279,71 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5257,31 +5391,31 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5289,7 +5423,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5300,7 +5434,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5312,13 +5446,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5345,13 +5479,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5369,13 +5503,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5384,13 +5518,13 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5401,7 +5535,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5424,13 +5558,13 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5469,19 +5603,17 @@
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>50</v>
@@ -5496,16 +5628,16 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5513,9 +5645,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5524,7 +5658,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>51</v>
@@ -5533,16 +5667,16 @@
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5569,13 +5703,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5593,13 +5727,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5614,10 +5748,10 @@
         <v>269</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5625,9 +5759,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5636,7 +5772,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>51</v>
@@ -5645,20 +5781,18 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5707,13 +5841,13 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
@@ -5722,24 +5856,24 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>279</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5750,7 +5884,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>51</v>
@@ -5759,20 +5893,18 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5821,13 +5953,13 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
@@ -5836,24 +5968,24 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5864,10 +5996,10 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -5876,13 +6008,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>288</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5933,43 +6065,43 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5979,7 +6111,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -5988,15 +6120,17 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>294</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6045,7 +6179,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6057,13 +6191,13 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6075,41 +6209,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
@@ -6157,25 +6295,25 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>303</v>
+        <v>149</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6189,7 +6327,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6212,13 +6350,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6245,13 +6383,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6269,7 +6407,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6281,13 +6419,13 @@
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6301,18 +6439,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -6321,20 +6459,18 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6383,25 +6519,25 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>117</v>
+        <v>298</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6413,13 +6549,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6429,29 +6565,25 @@
         <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6475,13 +6607,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6499,7 +6631,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6511,27 +6643,27 @@
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6542,10 +6674,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -6554,15 +6686,17 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6611,13 +6745,13 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
@@ -6626,24 +6760,24 @@
         <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6657,7 +6791,7 @@
         <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -6666,16 +6800,16 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6701,13 +6835,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6725,7 +6859,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6740,24 +6874,24 @@
         <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6768,10 +6902,10 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -6780,13 +6914,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6813,13 +6947,13 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>322</v>
+        <v>41</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
@@ -6837,13 +6971,13 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -6855,21 +6989,21 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6880,10 +7014,10 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -6892,17 +7026,15 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -6927,13 +7059,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -6951,13 +7083,13 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
@@ -6966,24 +7098,24 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6997,7 +7129,7 @@
         <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -7006,17 +7138,15 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7065,7 +7195,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7077,19 +7207,19 @@
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>62</v>
+        <v>343</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7097,7 +7227,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7120,17 +7250,15 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7179,7 +7307,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7191,19 +7319,19 @@
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>346</v>
+        <v>67</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7211,11 +7339,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7234,16 +7362,16 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>349</v>
+        <v>70</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7293,7 +7421,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7305,26 +7433,936 @@
         <v>41</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AJ55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN53" t="s" s="2">
+      <c r="L56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN53">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7334,7 +8372,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordAdministration.xlsx
+++ b/StructureDefinition-MedRecordAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="397">
   <si>
     <t>Path</t>
   </si>
@@ -575,6 +575,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -1398,7 +1405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4061,45 +4068,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4147,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4156,7 +4161,7 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4165,7 +4170,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4177,13 +4182,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4193,27 +4198,29 @@
         <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4261,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4273,16 +4280,16 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4291,9 +4298,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4307,24 +4314,26 @@
         <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4373,7 +4382,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4388,13 +4397,13 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4405,7 +4414,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4428,13 +4437,13 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4485,7 +4494,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4500,10 +4509,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4515,9 +4524,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4525,32 +4534,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4575,13 +4582,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4599,13 +4606,13 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4614,16 +4621,16 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4631,7 +4638,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4639,30 +4646,32 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4687,13 +4696,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4711,13 +4720,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4726,16 +4735,16 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4743,7 +4752,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4754,7 +4763,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>51</v>
@@ -4766,13 +4775,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4799,13 +4808,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4823,13 +4832,13 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
@@ -4838,24 +4847,24 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4863,32 +4872,30 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4913,32 +4920,34 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB31" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>50</v>
@@ -4950,40 +4959,38 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -4992,16 +4999,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5030,28 +5037,26 @@
         <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>50</v>
@@ -5066,16 +5071,16 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5083,10 +5088,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>41</v>
@@ -5108,16 +5113,16 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5143,13 +5148,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5167,7 +5172,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>50</v>
@@ -5182,16 +5187,16 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5199,15 +5204,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -5225,12 +5232,14 @@
         <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5279,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -5294,16 +5303,16 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5311,7 +5320,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5319,7 +5328,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>50</v>
@@ -5331,16 +5340,16 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5391,10 +5400,10 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>50</v>
@@ -5406,24 +5415,24 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5434,10 +5443,10 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5446,13 +5455,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5503,13 +5512,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5518,16 +5527,16 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5535,7 +5544,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5543,10 +5552,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5555,16 +5564,16 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5603,23 +5612,25 @@
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5628,40 +5639,38 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5670,13 +5679,13 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5715,19 +5724,17 @@
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>50</v>
@@ -5742,16 +5749,16 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5759,7 +5766,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>274</v>
@@ -5787,10 +5794,10 @@
         <v>275</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5841,7 +5848,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>50</v>
@@ -5856,16 +5863,16 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5873,9 +5880,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>41</v>
       </c>
@@ -5884,7 +5893,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>51</v>
@@ -5899,10 +5908,10 @@
         <v>277</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5953,13 +5962,13 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
@@ -5968,24 +5977,24 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5996,25 +6005,25 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6065,31 +6074,31 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>66</v>
+        <v>278</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6097,18 +6106,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -6120,17 +6129,15 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6179,19 +6186,19 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
@@ -6211,11 +6218,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6228,26 +6235,24 @@
         <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
@@ -6295,7 +6300,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6313,7 +6318,7 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6327,39 +6332,43 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6383,13 +6392,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6407,25 +6416,25 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6439,7 +6448,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6447,7 +6456,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>50</v>
@@ -6459,16 +6468,16 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6495,13 +6504,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6519,10 +6528,10 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>50</v>
@@ -6534,10 +6543,10 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6549,9 +6558,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6559,28 +6568,28 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6607,13 +6616,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6631,13 +6640,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6646,16 +6655,16 @@
         <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6663,7 +6672,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6686,17 +6695,15 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6721,13 +6728,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6745,7 +6752,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6760,24 +6767,24 @@
         <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6788,7 +6795,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>51</v>
@@ -6800,16 +6807,16 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6859,13 +6866,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -6874,24 +6881,24 @@
         <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>41</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6902,7 +6909,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>51</v>
@@ -6914,15 +6921,17 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -6971,13 +6980,13 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -6986,16 +6995,16 @@
         <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7003,7 +7012,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7026,13 +7035,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7083,7 +7092,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7098,16 +7107,16 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
@@ -7115,7 +7124,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7126,7 +7135,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>51</v>
@@ -7138,13 +7147,13 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7195,25 +7204,25 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
@@ -7225,9 +7234,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7241,7 +7250,7 @@
         <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -7250,13 +7259,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>65</v>
+        <v>344</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7307,7 +7316,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>66</v>
+        <v>342</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7319,13 +7328,13 @@
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>67</v>
+        <v>346</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
@@ -7339,18 +7348,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7362,17 +7371,15 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7421,19 +7428,19 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>41</v>
@@ -7453,11 +7460,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7470,26 +7477,24 @@
         <v>41</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
       </c>
@@ -7537,7 +7542,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7555,7 +7560,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
@@ -7569,39 +7574,43 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7649,25 +7658,25 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
@@ -7681,7 +7690,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7704,17 +7713,15 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -7739,13 +7746,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -7763,7 +7770,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7781,13 +7788,13 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -7795,7 +7802,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7818,15 +7825,17 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
@@ -7854,10 +7863,10 @@
         <v>116</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -7875,7 +7884,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7893,13 +7902,13 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -7907,7 +7916,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7930,17 +7939,15 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -7968,10 +7975,10 @@
         <v>116</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
@@ -7989,7 +7996,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8007,13 +8014,13 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8021,7 +8028,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8044,16 +8051,16 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>376</v>
+        <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8079,13 +8086,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8103,7 +8110,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8121,13 +8128,13 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8135,7 +8142,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8158,16 +8165,16 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8217,7 +8224,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8235,13 +8242,13 @@
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8249,7 +8256,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8260,7 +8267,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8272,16 +8279,16 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8331,13 +8338,13 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
@@ -8349,20 +8356,134 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="M62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8372,7 +8493,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordAdministration.xlsx
+++ b/StructureDefinition-MedRecordAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="399">
   <si>
     <t>Path</t>
   </si>
@@ -583,6 +583,12 @@
   <si>
     <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
+  </si>
+  <si>
+    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>MedicationAdministration.modifierExtension</t>
@@ -1405,7 +1411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4184,43 +4190,39 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4268,25 +4270,25 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4298,9 +4300,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4311,10 +4313,10 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4323,17 +4325,15 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4370,19 +4370,19 @@
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4394,16 +4394,16 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4422,10 +4422,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -4434,25 +4434,27 @@
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>41</v>
@@ -4494,25 +4496,25 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4526,7 +4528,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4537,7 +4539,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -4546,16 +4548,16 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4594,25 +4596,23 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4621,10 +4621,10 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4636,42 +4636,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4696,13 +4696,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4720,10 +4720,10 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>50</v>
@@ -4735,28 +4735,28 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4766,25 +4766,29 @@
         <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4808,13 +4812,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4832,7 +4836,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4844,19 +4848,19 @@
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4864,7 +4868,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4875,7 +4879,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -4887,15 +4891,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4920,13 +4926,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -4944,13 +4950,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4959,13 +4965,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4976,7 +4982,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4984,10 +4990,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4999,17 +5005,15 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5034,35 +5038,37 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5071,28 +5077,26 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5101,10 +5105,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5113,17 +5117,15 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5148,13 +5150,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5172,13 +5174,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5187,16 +5189,16 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5204,17 +5206,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -5223,22 +5223,22 @@
         <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5264,13 +5264,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5288,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -5303,16 +5303,16 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5328,10 +5328,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>51</v>
@@ -5340,16 +5340,16 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5376,13 +5376,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5400,13 +5400,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -5415,16 +5415,16 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5455,13 +5455,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5488,13 +5488,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5512,7 +5512,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5527,16 +5527,16 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5552,10 +5552,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5564,18 +5564,20 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5600,37 +5602,35 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5639,38 +5639,40 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5679,15 +5681,17 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5712,29 +5716,31 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>50</v>
@@ -5749,16 +5755,16 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5766,10 +5772,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
@@ -5791,15 +5797,17 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5848,7 +5856,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>50</v>
@@ -5863,16 +5871,16 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5880,17 +5888,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>50</v>
@@ -5905,13 +5911,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5962,7 +5968,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -5977,16 +5983,16 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -5994,7 +6000,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6005,7 +6011,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>51</v>
@@ -6014,16 +6020,16 @@
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6074,13 +6080,13 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -6089,16 +6095,16 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6106,7 +6112,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6117,7 +6123,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -6129,13 +6135,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6186,28 +6192,28 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>66</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6218,18 +6224,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6238,20 +6244,18 @@
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6288,87 +6292,83 @@
         <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>70</v>
+        <v>277</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6416,41 +6416,43 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6462,22 +6464,22 @@
         <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6504,13 +6506,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6528,10 +6530,10 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>50</v>
@@ -6543,24 +6545,24 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6568,13 +6570,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -6583,13 +6585,13 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6640,13 +6642,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6655,24 +6657,24 @@
         <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6683,10 +6685,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -6695,13 +6697,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>64</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
+        <v>65</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6728,13 +6730,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6752,43 +6754,43 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6798,7 +6800,7 @@
         <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -6807,16 +6809,16 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>317</v>
+        <v>72</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6866,7 +6868,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6878,61 +6880,63 @@
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>67</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>322</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>324</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -6980,39 +6984,39 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7023,10 +7027,10 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7035,13 +7039,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7068,13 +7072,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7092,13 +7096,13 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
@@ -7107,24 +7111,24 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7132,28 +7136,28 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7204,13 +7208,13 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
@@ -7219,10 +7223,10 @@
         <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
@@ -7236,7 +7240,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7247,7 +7251,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>51</v>
@@ -7259,13 +7263,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7292,13 +7296,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7316,39 +7320,39 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>345</v>
+        <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7359,10 +7363,10 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7371,15 +7375,17 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>64</v>
+        <v>318</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7428,53 +7434,53 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>67</v>
+        <v>322</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7483,16 +7489,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>71</v>
+        <v>327</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>73</v>
+        <v>329</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7542,43 +7548,43 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7588,29 +7594,25 @@
         <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7658,7 +7660,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7670,27 +7672,27 @@
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7701,10 +7703,10 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -7713,13 +7715,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>52</v>
+        <v>339</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7770,13 +7772,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -7785,10 +7787,10 @@
         <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -7800,9 +7802,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7816,7 +7818,7 @@
         <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -7825,17 +7827,15 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
@@ -7860,13 +7860,13 @@
         <v>41</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>358</v>
+        <v>41</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -7884,7 +7884,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7896,19 +7896,19 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7939,13 +7939,13 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>363</v>
+        <v>64</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>364</v>
+        <v>65</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7972,13 +7972,13 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
@@ -7996,7 +7996,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>362</v>
+        <v>66</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8008,19 +8008,19 @@
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>368</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8028,18 +8028,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
@@ -8051,16 +8051,16 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>370</v>
+        <v>71</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>371</v>
+        <v>72</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>372</v>
+        <v>73</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8086,13 +8086,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8110,31 +8110,31 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>375</v>
+        <v>67</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8142,41 +8142,43 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>378</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8224,31 +8226,31 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>382</v>
+        <v>149</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8256,7 +8258,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8279,17 +8281,15 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>385</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8338,7 +8338,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8356,13 +8356,13 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8381,7 +8381,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8393,16 +8393,16 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>392</v>
+        <v>219</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8428,13 +8428,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8452,13 +8452,13 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8470,20 +8470,588 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN62" t="s" s="2">
+      <c r="M67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8493,7 +9061,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordAdministration.xlsx
+++ b/StructureDefinition-MedRecordAdministration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="401">
   <si>
     <t>Path</t>
   </si>
@@ -583,6 +583,12 @@
   <si>
     <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
     <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
@@ -4104,10 +4110,10 @@
         <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4454,7 +4460,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>41</v>
@@ -4557,7 +4563,7 @@
         <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4669,7 +4675,7 @@
         <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4752,7 +4758,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4778,16 +4784,16 @@
         <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4836,7 +4842,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4868,7 +4874,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4891,16 +4897,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4950,7 +4956,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4965,13 +4971,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4982,7 +4988,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5008,10 +5014,10 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5062,7 +5068,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5077,10 +5083,10 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5117,13 +5123,13 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5174,7 +5180,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5189,10 +5195,10 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5206,7 +5212,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5232,13 +5238,13 @@
         <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5264,13 +5270,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5288,7 +5294,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -5303,16 +5309,16 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5320,7 +5326,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5343,13 +5349,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5379,10 +5385,10 @@
         <v>116</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5400,7 +5406,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5415,16 +5421,16 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5432,7 +5438,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5455,13 +5461,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5491,10 +5497,10 @@
         <v>130</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5512,7 +5518,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5530,7 +5536,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5544,7 +5550,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5567,16 +5573,16 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5605,10 +5611,10 @@
         <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
@@ -5624,7 +5630,7 @@
         <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>50</v>
@@ -5639,16 +5645,16 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5656,10 +5662,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>41</v>
@@ -5681,16 +5687,16 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5719,10 +5725,10 @@
         <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5740,7 +5746,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>50</v>
@@ -5755,16 +5761,16 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5772,10 +5778,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
@@ -5797,16 +5803,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5856,7 +5862,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>50</v>
@@ -5871,16 +5877,16 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5888,7 +5894,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5911,13 +5917,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5968,7 +5974,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -5983,16 +5989,16 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6000,7 +6006,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6023,13 +6029,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6080,7 +6086,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6095,16 +6101,16 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6112,7 +6118,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6135,13 +6141,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6192,7 +6198,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6210,10 +6216,10 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6224,7 +6230,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6247,13 +6253,13 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6302,7 +6308,7 @@
         <v>175</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>50</v>
@@ -6317,16 +6323,16 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6334,10 +6340,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>41</v>
@@ -6359,13 +6365,13 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6416,7 +6422,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -6431,16 +6437,16 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6448,10 +6454,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>41</v>
@@ -6473,13 +6479,13 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6530,7 +6536,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>50</v>
@@ -6545,16 +6551,16 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6562,7 +6568,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6585,13 +6591,13 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6642,7 +6648,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6657,16 +6663,16 @@
         <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6674,7 +6680,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6786,7 +6792,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6900,11 +6906,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6926,16 +6932,16 @@
         <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -6984,7 +6990,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7016,7 +7022,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7039,13 +7045,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7075,10 +7081,10 @@
         <v>116</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7096,7 +7102,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7111,10 +7117,10 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
@@ -7128,7 +7134,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7151,13 +7157,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7208,7 +7214,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>50</v>
@@ -7223,10 +7229,10 @@
         <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
@@ -7240,7 +7246,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7263,13 +7269,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7299,10 +7305,10 @@
         <v>116</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7320,7 +7326,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7335,16 +7341,16 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7352,7 +7358,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7375,16 +7381,16 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7434,7 +7440,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7449,24 +7455,24 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7489,16 +7495,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7548,7 +7554,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7566,13 +7572,13 @@
         <v>159</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7580,7 +7586,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7603,13 +7609,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7660,7 +7666,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7678,13 +7684,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7692,7 +7698,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7715,13 +7721,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7772,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7787,10 +7793,10 @@
         <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -7804,7 +7810,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7827,13 +7833,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7884,7 +7890,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7896,13 +7902,13 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
@@ -7916,7 +7922,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8028,7 +8034,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8142,11 +8148,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8168,16 +8174,16 @@
         <v>70</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
@@ -8226,7 +8232,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8258,7 +8264,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8284,10 +8290,10 @@
         <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8338,7 +8344,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8356,7 +8362,7 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
@@ -8370,7 +8376,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8393,16 +8399,16 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8431,10 +8437,10 @@
         <v>116</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8452,7 +8458,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8470,13 +8476,13 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8484,7 +8490,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8507,13 +8513,13 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8543,10 +8549,10 @@
         <v>116</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>41</v>
@@ -8564,7 +8570,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8582,13 +8588,13 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8596,7 +8602,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8619,16 +8625,16 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8657,10 +8663,10 @@
         <v>116</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>41</v>
@@ -8678,7 +8684,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8696,13 +8702,13 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8710,7 +8716,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8733,16 +8739,16 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8792,7 +8798,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -8810,13 +8816,13 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -8824,7 +8830,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8847,16 +8853,16 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8906,7 +8912,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -8924,13 +8930,13 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -8938,7 +8944,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8961,16 +8967,16 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9020,7 +9026,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9038,7 +9044,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-MedRecordAdministration.xlsx
+++ b/StructureDefinition-MedRecordAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="378">
   <si>
     <t>Path</t>
   </si>
@@ -501,64 +501,194 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-basedOn}
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+    <t>Based On</t>
+  </si>
+  <si>
+    <t>The Medication Treatment that this resource belongs to or is based on</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ORC in proximity to EVN segment</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
+    <t>MedicationAdministration.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+    <t>External identifier</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.instantiates</t>
+  </si>
+  <si>
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Event.instantiates</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|Procedure)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular event is a component or step.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.status</t>
+  </si>
+  <si>
+    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>RXA-20-Completion Status</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason administration not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the administration was not performed.</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
+  </si>
+  <si>
+    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category</t>
+  </si>
+  <si>
+    <t>Type of medication usage</t>
+  </si>
+  <si>
+    <t>Indicates where the medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Codes identifying substance or product that can be administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -568,211 +698,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
-</t>
-  </si>
-  <si>
-    <t>Based On Extension</t>
-  </si>
-  <si>
-    <t>Extension for connecting several resources to a single Treatment Line</t>
-  </si>
-  <si>
-    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.instantiates</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Event.instantiates</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|Procedure)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular event is a component or step.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.status</t>
-  </si>
-  <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>RXA-20-Completion Status</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason administration not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
-  </si>
-  <si>
-    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category</t>
-  </si>
-  <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>Indicates where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -1054,6 +979,9 @@
   </si>
   <si>
     <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
   </si>
   <si>
     <t>InFullfillmentOf-&gt;SubstanceAdministration</t>
@@ -1417,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3503,16 +3431,16 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3520,39 +3448,43 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3600,25 +3532,25 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -3630,9 +3562,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3643,10 +3575,10 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3655,15 +3587,17 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3700,19 +3634,19 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3724,16 +3658,16 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3744,7 +3678,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3752,10 +3686,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3764,27 +3698,25 @@
         <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -3826,25 +3758,25 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3858,7 +3790,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3866,10 +3798,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3878,16 +3810,16 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3926,23 +3858,25 @@
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3951,10 +3885,10 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3966,13 +3900,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3984,24 +3916,26 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4026,13 +3960,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -4050,10 +3984,10 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -4065,16 +3999,16 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4082,11 +4016,9 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4095,7 +4027,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>51</v>
@@ -4107,13 +4039,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4140,13 +4072,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4164,7 +4096,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4173,30 +4105,30 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4210,7 +4142,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4219,13 +4151,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4252,13 +4184,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4276,7 +4208,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4288,13 +4220,13 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4308,7 +4240,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4316,10 +4248,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -4328,18 +4260,20 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4364,95 +4298,95 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4460,7 +4394,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>41</v>
@@ -4478,13 +4412,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4502,7 +4436,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>50</v>
@@ -4514,29 +4448,31 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4548,24 +4484,26 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4602,20 +4540,22 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4627,55 +4567,53 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4726,10 +4664,10 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>50</v>
@@ -4741,60 +4679,56 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4842,39 +4776,39 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4888,7 +4822,7 @@
         <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -4897,17 +4831,15 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4956,7 +4888,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4971,13 +4903,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4988,7 +4920,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4996,10 +4928,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -5011,13 +4943,13 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5056,25 +4988,23 @@
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5083,26 +5013,28 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5111,10 +5043,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5123,13 +5055,13 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5180,13 +5112,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5195,16 +5127,16 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5212,15 +5144,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -5229,23 +5163,21 @@
         <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5270,13 +5202,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5294,7 +5226,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -5309,16 +5241,16 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5326,7 +5258,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5346,16 +5278,16 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5382,13 +5314,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5406,7 +5338,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5421,24 +5353,24 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5452,7 +5384,7 @@
         <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5461,13 +5393,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5494,13 +5426,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5518,7 +5450,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5530,13 +5462,13 @@
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5550,18 +5482,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5570,19 +5502,19 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5608,97 +5540,99 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5722,13 +5656,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5746,43 +5680,41 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5794,26 +5726,24 @@
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5838,13 +5768,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5862,10 +5792,10 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -5877,24 +5807,24 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5908,7 +5838,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -5917,13 +5847,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5974,7 +5904,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -5989,16 +5919,16 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6006,7 +5936,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6017,7 +5947,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>51</v>
@@ -6029,13 +5959,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6062,13 +5992,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6086,13 +6016,13 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -6101,24 +6031,24 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6132,7 +6062,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6141,15 +6071,17 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6198,7 +6130,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6213,24 +6145,24 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6238,30 +6170,32 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6298,20 +6232,22 @@
         <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>50</v>
@@ -6323,16 +6259,16 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6340,11 +6276,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6353,7 +6287,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>51</v>
@@ -6362,16 +6296,16 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6422,13 +6356,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6437,16 +6371,16 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6454,11 +6388,9 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6467,7 +6399,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>51</v>
@@ -6476,16 +6408,16 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6536,13 +6468,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6551,16 +6483,16 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6568,7 +6500,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6579,7 +6511,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>51</v>
@@ -6588,16 +6520,16 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6648,31 +6580,31 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6680,7 +6612,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6792,7 +6724,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6906,11 +6838,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6932,16 +6864,16 @@
         <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -6990,7 +6922,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7022,7 +6954,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7045,13 +6977,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7078,13 +7010,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7102,7 +7034,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7117,10 +7049,10 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
@@ -7134,7 +7066,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7142,7 +7074,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>50</v>
@@ -7154,18 +7086,20 @@
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7190,13 +7124,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7214,10 +7148,10 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>50</v>
@@ -7229,24 +7163,24 @@
         <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7257,10 +7191,10 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -7269,13 +7203,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7305,10 +7239,10 @@
         <v>116</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7326,13 +7260,13 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
@@ -7341,24 +7275,24 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7369,10 +7303,10 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7381,16 +7315,16 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7416,13 +7350,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7440,13 +7374,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7455,24 +7389,24 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>326</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7486,7 +7420,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7495,16 +7429,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7554,7 +7488,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7569,24 +7503,24 @@
         <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7597,10 +7531,10 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -7609,15 +7543,17 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7666,13 +7602,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7684,21 +7620,21 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7712,7 +7648,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -7721,15 +7657,17 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -7778,7 +7716,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7793,10 +7731,10 @@
         <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -7805,1259 +7743,11 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN67" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9067,7 +7757,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordAdministration.xlsx
+++ b/StructureDefinition-MedRecordAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="401">
   <si>
     <t>Path</t>
   </si>
@@ -501,20 +501,102 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
+    <t xml:space="preserve">Extension {event-basedOn}
 </t>
   </si>
   <si>
-    <t>Based On</t>
-  </si>
-  <si>
-    <t>The Medication Treatment that this resource belongs to or is based on</t>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+</t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
+  </si>
+  <si>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
     <t>MedicationAdministration.modifierExtension</t>
   </si>
   <si>
@@ -691,13 +773,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -979,9 +1054,6 @@
   </si>
   <si>
     <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
   </si>
   <si>
     <t>InFullfillmentOf-&gt;SubstanceAdministration</t>
@@ -1345,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3431,16 +3503,16 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3448,43 +3520,39 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3532,39 +3600,39 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3575,10 +3643,10 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3587,17 +3655,15 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3634,19 +3700,19 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3658,16 +3724,16 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3678,7 +3744,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3686,10 +3752,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3698,25 +3764,27 @@
         <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -3758,25 +3826,25 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3790,7 +3858,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3798,10 +3866,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3810,16 +3878,16 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3858,25 +3926,23 @@
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3885,10 +3951,10 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3900,11 +3966,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3916,26 +3984,24 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3960,13 +4026,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3984,10 +4050,10 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3999,16 +4065,16 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4016,9 +4082,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4027,7 +4095,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>51</v>
@@ -4039,13 +4107,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4072,13 +4140,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4096,7 +4164,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4105,30 +4173,30 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4142,7 +4210,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4151,13 +4219,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4184,13 +4252,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4208,7 +4276,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4220,13 +4288,13 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4240,7 +4308,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4248,10 +4316,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -4260,20 +4328,18 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4298,95 +4364,95 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4394,7 +4460,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>41</v>
@@ -4412,13 +4478,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4436,7 +4502,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>50</v>
@@ -4448,31 +4514,29 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4484,26 +4548,24 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4540,22 +4602,20 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4567,53 +4627,55 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4664,10 +4726,10 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>50</v>
@@ -4679,56 +4741,60 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4776,39 +4842,39 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4822,7 +4888,7 @@
         <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -4831,15 +4897,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4888,7 +4956,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4903,13 +4971,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4920,7 +4988,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4928,10 +4996,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4943,13 +5011,13 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4988,23 +5056,25 @@
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5013,28 +5083,26 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5043,10 +5111,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5055,13 +5123,13 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5112,13 +5180,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5127,16 +5195,16 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5144,17 +5212,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -5163,21 +5229,23 @@
         <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5202,13 +5270,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5226,7 +5294,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -5241,16 +5309,16 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5258,7 +5326,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5278,16 +5346,16 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5314,13 +5382,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5338,7 +5406,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5353,24 +5421,24 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5384,7 +5452,7 @@
         <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5393,13 +5461,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5426,13 +5494,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5450,7 +5518,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5462,13 +5530,13 @@
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5482,18 +5550,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5502,19 +5570,19 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5540,99 +5608,97 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C38" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5656,13 +5722,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5680,41 +5746,43 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5726,24 +5794,26 @@
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5768,13 +5838,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5792,10 +5862,10 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -5807,24 +5877,24 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5838,7 +5908,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -5847,13 +5917,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5904,7 +5974,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -5919,16 +5989,16 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -5936,7 +6006,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5947,7 +6017,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>51</v>
@@ -5959,13 +6029,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5992,13 +6062,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6016,13 +6086,13 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
@@ -6031,24 +6101,24 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6062,7 +6132,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6071,17 +6141,15 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6130,7 +6198,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6145,24 +6213,24 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6170,32 +6238,30 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6232,22 +6298,20 @@
         <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>50</v>
@@ -6259,16 +6323,16 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6276,9 +6340,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6287,7 +6353,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>51</v>
@@ -6296,16 +6362,16 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6356,13 +6422,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6371,16 +6437,16 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6388,9 +6454,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6399,7 +6467,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>51</v>
@@ -6408,16 +6476,16 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6468,13 +6536,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6483,16 +6551,16 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6500,7 +6568,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6511,7 +6579,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>51</v>
@@ -6520,16 +6588,16 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6580,31 +6648,31 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>326</v>
+        <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6612,7 +6680,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6724,7 +6792,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6838,11 +6906,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6864,16 +6932,16 @@
         <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -6922,7 +6990,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6954,7 +7022,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6977,13 +7045,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7010,13 +7078,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7034,7 +7102,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7049,10 +7117,10 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
@@ -7066,7 +7134,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7074,7 +7142,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>50</v>
@@ -7086,20 +7154,18 @@
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7124,13 +7190,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7148,10 +7214,10 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>50</v>
@@ -7163,24 +7229,24 @@
         <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7191,10 +7257,10 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -7203,13 +7269,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7239,10 +7305,10 @@
         <v>116</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7260,13 +7326,13 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
@@ -7275,24 +7341,24 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7303,10 +7369,10 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7315,16 +7381,16 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7350,13 +7416,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7374,13 +7440,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7389,24 +7455,24 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7420,7 +7486,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7429,16 +7495,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7488,7 +7554,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7503,24 +7569,24 @@
         <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7531,10 +7597,10 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -7543,17 +7609,15 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7602,13 +7666,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7620,21 +7684,21 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7648,7 +7712,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -7657,17 +7721,15 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -7716,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7731,23 +7793,1271 @@
         <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X64" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN56" t="s" s="2">
+      <c r="Y64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN56">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7757,7 +9067,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordAdministration.xlsx
+++ b/StructureDefinition-MedRecordAdministration.xlsx
@@ -581,7 +581,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -591,7 +591,7 @@
     <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
-    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>

--- a/StructureDefinition-MedRecordAdministration.xlsx
+++ b/StructureDefinition-MedRecordAdministration.xlsx
@@ -581,7 +581,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -591,7 +591,7 @@
     <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
-    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
